--- a/Sikuli/Excel_Files/Pro_QuestionTemplate.xlsx
+++ b/Sikuli/Excel_Files/Pro_QuestionTemplate.xlsx
@@ -70,10 +70,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Automation_Testing1</t>
-  </si>
-  <si>
-    <t>Automation_Pro_Testing1</t>
+    <t>Automation_Testing4</t>
+  </si>
+  <si>
+    <t>Automation_Pro_Testing5</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
